--- a/data/calc.xlsx
+++ b/data/calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2BBBA2-CE34-40C6-8487-B6A2AFC9F942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EEC166-E182-427C-B17D-AAA97E3259FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-17055" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Itk</t>
+    <t>Инфраструктура</t>
   </si>
   <si>
-    <t>needs</t>
+    <t>Требуется</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/calc.xlsx
+++ b/data/calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EEC166-E182-427C-B17D-AAA97E3259FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE31907-7924-44AD-9EF1-FAD631A22697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-17055" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,53 +415,39 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1175727.28</v>
+        <v>78936561</v>
       </c>
       <c r="B2">
-        <v>1043307.5</v>
+        <v>79883799.731999993</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1175727.28</v>
+        <v>5901440</v>
       </c>
       <c r="B3">
-        <v>1043307.5</v>
+        <v>6048976</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>898541.5</v>
+        <v>929918</v>
       </c>
       <c r="B4">
-        <v>1175727.5</v>
+        <v>958745.45799999998</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>898541.5</v>
+        <v>23455861</v>
       </c>
       <c r="B5">
-        <v>1175727.5</v>
+        <v>23760787.193</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>898541.5</v>
-      </c>
-      <c r="B6">
-        <v>1175727.5</v>
-      </c>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1175727.28</v>
-      </c>
-      <c r="B7">
-        <v>1043307.5</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G11" s="3"/>

--- a/data/calc.xlsx
+++ b/data/calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE31907-7924-44AD-9EF1-FAD631A22697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5BA3D4-266D-4CDE-A3FA-CAA0225B54E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-17055" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-13200" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Инфраструктура</t>
   </si>
   <si>
     <t>Требуется</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Работы </t>
+  </si>
+  <si>
+    <t>ПНР</t>
+  </si>
+  <si>
+    <t>ШМР</t>
+  </si>
+  <si>
+    <t>Оборудование</t>
+  </si>
+  <si>
+    <t>ПО</t>
   </si>
 </sst>
 </file>
@@ -381,76 +396,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>78936561</v>
       </c>
-      <c r="B2">
-        <v>79883799.731999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>5901440</v>
       </c>
-      <c r="B3">
-        <v>6048976</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>929918</v>
       </c>
-      <c r="B4">
-        <v>958745.45799999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>23455861</v>
       </c>
-      <c r="B5">
-        <v>23760787.193</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H6" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G11" s="3"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/calc.xlsx
+++ b/data/calc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DS\lessons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5BA3D4-266D-4CDE-A3FA-CAA0225B54E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84764155-3F9E-4DD6-9738-0AC2FFA612C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-13200" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7635" yWindow="-16005" windowWidth="38700" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Инфраструктура</t>
   </si>
@@ -42,16 +42,7 @@
     <t xml:space="preserve">Работы </t>
   </si>
   <si>
-    <t>ПНР</t>
-  </si>
-  <si>
-    <t>ШМР</t>
-  </si>
-  <si>
-    <t>Оборудование</t>
-  </si>
-  <si>
-    <t>ПО</t>
+    <t>Поставка оборудования по спецификации ё</t>
   </si>
 </sst>
 </file>
@@ -61,7 +52,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ [$₽-419]_-;\-* #,##0\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +77,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,18 +102,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,13 +433,13 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="19.109375" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
@@ -421,7 +455,7 @@
     <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -432,40 +466,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>78936561</v>
+      <c r="B2" s="5">
+        <v>779658.62</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>5901440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>929918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>23455861</v>
-      </c>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
       <c r="I6" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">

--- a/data/calc.xlsx
+++ b/data/calc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DS\lessons\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/340589f58029093d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84764155-3F9E-4DD6-9738-0AC2FFA612C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B8B3998-2276-4514-B0FA-05706E90CCCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7635" yWindow="-16005" windowWidth="38700" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -42,7 +36,13 @@
     <t xml:space="preserve">Работы </t>
   </si>
   <si>
-    <t>Поставка оборудования по спецификации ё</t>
+    <t>Шеф-монтаж и Пуско-наладочные 
+работы оборудования АСУТП (ПНР 
+верхнего уровня без реализации
+задач по оптимальной 
+транспортировке материалов и масел 
+по трубопроводам со сложной 
+разветвленной структурой).</t>
   </si>
 </sst>
 </file>
@@ -151,8 +151,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 49" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -433,29 +433,29 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -466,32 +466,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>779658.62</v>
+        <v>7785599.8799999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="5"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H11" s="3"/>
     </row>
   </sheetData>

--- a/data/calc.xlsx
+++ b/data/calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/340589f58029093d/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DS\lessons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B8B3998-2276-4514-B0FA-05706E90CCCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7805C2D0-82B1-4821-A3F3-EA5264491411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7635" yWindow="-16005" windowWidth="38700" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="1092" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
     <t xml:space="preserve">Работы </t>
   </si>
   <si>
-    <t>Шеф-монтаж и Пуско-наладочные 
-работы оборудования АСУТП (ПНР 
-верхнего уровня без реализации
-задач по оптимальной 
-транспортировке материалов и масел 
-по трубопроводам со сложной 
-разветвленной структурой).</t>
+    <t xml:space="preserve">Проектно-изыскательские работы СУГ </t>
   </si>
 </sst>
 </file>
@@ -151,8 +145,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 49" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -433,29 +427,29 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -466,32 +460,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>7785599.8799999999</v>
+        <v>6684277</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="5"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H11" s="3"/>
     </row>
   </sheetData>

--- a/data/calc.xlsx
+++ b/data/calc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DS\lessons\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7805C2D0-82B1-4821-A3F3-EA5264491411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF60D9B-4DDF-4B97-9211-D5003C35AD7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="1092" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61395" yWindow="-9720" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Инфраструктура</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t xml:space="preserve">Проектно-изыскательские работы СУГ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тест 2 </t>
+  </si>
+  <si>
+    <t>Тест 3</t>
   </si>
 </sst>
 </file>
@@ -427,7 +433,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,16 +471,27 @@
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>6684277</v>
-      </c>
+        <v>6527304.75</v>
+      </c>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1370024</v>
+      </c>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>17963757.780000001</v>
+      </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>

--- a/data/calc.xlsx
+++ b/data/calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF60D9B-4DDF-4B97-9211-D5003C35AD7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD24784-75E9-4A35-B263-EBA3E0BD179A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="61395" yWindow="-9720" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,7 +473,9 @@
       <c r="B2" s="5">
         <v>6527304.75</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5">
+        <v>6827304.75</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -482,7 +484,9 @@
       <c r="B3" s="5">
         <v>1370024</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5">
+        <v>11570024</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -491,7 +495,9 @@
       <c r="B4" s="5">
         <v>17963757.780000001</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5">
+        <v>19963757.780000001</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>

--- a/data/calc.xlsx
+++ b/data/calc.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD24784-75E9-4A35-B263-EBA3E0BD179A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839A5236-C422-4A8F-B548-096B04E71B2F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61395" yWindow="-9720" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{BFF21D61-57FF-405F-996A-981DF9D9AFF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Поставка оборудования АСУТП (с учетом сборки шкафов, ЗПИ, РКД)</t>
+  </si>
+  <si>
+    <t>Инжиниринг (разработка ППО)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШМР в объеме АСУТП </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПНР в объеме АСУТП </t>
+  </si>
+  <si>
+    <t>Ромашка 1</t>
+  </si>
+  <si>
+    <t>Ромашка 2</t>
+  </si>
   <si>
     <t>Инфраструктура</t>
   </si>
@@ -33,26 +51,14 @@
     <t>Требуется</t>
   </si>
   <si>
-    <t xml:space="preserve">Работы </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проектно-изыскательские работы СУГ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тест 2 </t>
-  </si>
-  <si>
-    <t>Тест 3</t>
+    <t>Работы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ [$₽-419]_-;\-* #,##0\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,30 +66,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -102,57 +84,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 49" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -168,9 +109,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +125,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -196,7 +137,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -208,7 +149,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -243,6 +184,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -278,9 +236,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,87 +404,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7A9C1D-118C-417F-8F09-BD80798DFE12}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>122396009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8919023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="B4" s="1">
+        <v>1617678</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
-        <v>6527304.75</v>
-      </c>
-      <c r="C2" s="5">
-        <v>6827304.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1370024</v>
-      </c>
-      <c r="C3" s="5">
-        <v>11570024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5">
-        <v>17963757.780000001</v>
-      </c>
-      <c r="C4" s="5">
-        <v>19963757.780000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H11" s="3"/>
+      <c r="B5" s="1">
+        <v>8422251</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/calc.xlsx
+++ b/data/calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839A5236-C422-4A8F-B548-096B04E71B2F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F7D8E6-3527-4189-AE53-97DEB3C7DA4B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{BFF21D61-57FF-405F-996A-981DF9D9AFF0}"/>
   </bookViews>
@@ -405,18 +405,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7A9C1D-118C-417F-8F09-BD80798DFE12}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A11" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -441,16 +442,18 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>122396009</v>
-      </c>
+        <v>129574609</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>8919023</v>
-      </c>
+        <v>8422251</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -459,14 +462,23 @@
       <c r="B4" s="1">
         <v>1617678</v>
       </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>8422251</v>
-      </c>
+        <v>8919023</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/calc.xlsx
+++ b/data/calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F7D8E6-3527-4189-AE53-97DEB3C7DA4B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C61DB1-AAD2-444E-BEF1-AF5C7C54FBE4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{BFF21D61-57FF-405F-996A-981DF9D9AFF0}"/>
   </bookViews>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Поставка оборудования АСУТП (с учетом сборки шкафов, ЗПИ, РКД)</t>
-  </si>
-  <si>
-    <t>Инжиниринг (разработка ППО)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ШМР в объеме АСУТП </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПНР в объеме АСУТП </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Ромашка 1</t>
   </si>
@@ -52,6 +40,15 @@
   </si>
   <si>
     <t>Работы</t>
+  </si>
+  <si>
+    <t>ПИР</t>
+  </si>
+  <si>
+    <t>Разработка ТЗ</t>
+  </si>
+  <si>
+    <t>Экспертиза ПБ</t>
   </si>
 </sst>
 </file>
@@ -408,7 +405,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,55 +419,50 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>129574609</v>
+        <v>3911008</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>8422251</v>
+        <v>1220844.24</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>1617678</v>
+        <v>600000</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>8919023</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/calc.xlsx
+++ b/data/calc.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DS\lessons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C61DB1-AAD2-444E-BEF1-AF5C7C54FBE4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B66E8C9-50F7-4C0E-942A-3499FBC44A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{BFF21D61-57FF-405F-996A-981DF9D9AFF0}"/>
+    <workbookView xWindow="-120" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{BFF21D61-57FF-405F-996A-981DF9D9AFF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">ШМР в объеме АСУТП </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПНР в объеме АСУТП </t>
+  </si>
   <si>
     <t>Ромашка 1</t>
   </si>
@@ -33,22 +45,19 @@
     <t>Ромашка 2</t>
   </si>
   <si>
+    <t>Поставка оборудования АСУТП (с учетом сборки шкафов, обучения, ЗПИ и РКД)</t>
+  </si>
+  <si>
+    <t>Инжиниринг</t>
+  </si>
+  <si>
+    <t>Метрологическое обеспечение</t>
+  </si>
+  <si>
     <t>Инфраструктура</t>
   </si>
   <si>
     <t>Требуется</t>
-  </si>
-  <si>
-    <t>Работы</t>
-  </si>
-  <si>
-    <t>ПИР</t>
-  </si>
-  <si>
-    <t>Разработка ТЗ</t>
-  </si>
-  <si>
-    <t>Экспертиза ПБ</t>
   </si>
 </sst>
 </file>
@@ -402,75 +411,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7A9C1D-118C-417F-8F09-BD80798DFE12}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="73.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>3911008</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>129574609</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>1220844.24</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>8422251</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>600000</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>1617678</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8919023</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6214035</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/calc.xlsx
+++ b/data/calc.xlsx
@@ -1,71 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DS\lessons\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B66E8C9-50F7-4C0E-942A-3499FBC44A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD85ECE-62CB-4667-B410-EA18E8912083}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{BFF21D61-57FF-405F-996A-981DF9D9AFF0}"/>
+    <workbookView xWindow="432" yWindow="-21168" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve">ШМР в объеме АСУТП </t>
+    <t>Требуется</t>
   </si>
   <si>
-    <t xml:space="preserve">ПНР в объеме АСУТП </t>
-  </si>
-  <si>
-    <t>Ромашка 1</t>
-  </si>
-  <si>
-    <t>Ромашка 2</t>
-  </si>
-  <si>
-    <t>Поставка оборудования АСУТП (с учетом сборки шкафов, обучения, ЗПИ и РКД)</t>
-  </si>
-  <si>
-    <t>Инжиниринг</t>
-  </si>
-  <si>
-    <t>Метрологическое обеспечение</t>
+    <t>Обследование объекта и разработка ТЗ</t>
   </si>
   <si>
     <t>Инфраструктура</t>
   </si>
   <si>
-    <t>Требуется</t>
+    <t>Работы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -91,18 +83,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -125,44 +120,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -189,32 +184,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -241,24 +218,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -270,216 +229,207 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7A9C1D-118C-417F-8F09-BD80798DFE12}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="73.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>129574609</v>
+        <v>5315636</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>8422251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1617678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>8919023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>6214035</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/calc.xlsx
+++ b/data/calc.xlsx
@@ -5,33 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\lessons\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DS\lessons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD85ECE-62CB-4667-B410-EA18E8912083}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2A4D69-2BA9-49A3-B8F2-48310D9C4110}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="432" yWindow="-21168" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" refMode="R1C1"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Обследование объекта и разработка ТЗ</t>
+  </si>
+  <si>
+    <t>Инфраструктура</t>
+  </si>
+  <si>
+    <t>Работы</t>
+  </si>
+  <si>
+    <t>Ромашка 1</t>
+  </si>
+  <si>
+    <t>Ромашка 2</t>
+  </si>
   <si>
     <t>Требуется</t>
-  </si>
-  <si>
-    <t>Обследование объекта и разработка ТЗ</t>
-  </si>
-  <si>
-    <t>Инфраструктура</t>
-  </si>
-  <si>
-    <t>Работы</t>
   </si>
 </sst>
 </file>
@@ -87,10 +93,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -394,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,29 +414,36 @@
     <col min="3" max="3" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="3">
+        <v>6545760</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5315636</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>